--- a/medicine/Handicap/Para-attelage/Para-attelage.xlsx
+++ b/medicine/Handicap/Para-attelage/Para-attelage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le para-attelage est un sport équestre d'attelage adapté aux personnes qui se déplacent en fauteuil roulant.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le para-attelage est peu connu et peu répandu, s'agissant d'une discipline qui fait appel à une voiture adaptée à l'accueil d'un fauteuil roulant[1]. En France, cette activité est soutenue et promue par l'Institut français du cheval et de l'équitation[1],[2], qui s'occupe entre autres de la conception de voitures adaptées et de l'accessibilité pour les meneurs en fauteuil[3].
-Des démonstrations ont notamment lieu en Bretagne, en 2019[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le para-attelage est peu connu et peu répandu, s'agissant d'une discipline qui fait appel à une voiture adaptée à l'accueil d'un fauteuil roulant. En France, cette activité est soutenue et promue par l'Institut français du cheval et de l'équitation qui s'occupe entre autres de la conception de voitures adaptées et de l'accessibilité pour les meneurs en fauteuil.
+Des démonstrations ont notamment lieu en Bretagne, en 2019.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Pratique mondiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le para-attelage est pratiqué en Grande-Bretagne, aux Pays-Bas, en Allemagne, en Hongrie et aux États-Unis[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le para-attelage est pratiqué en Grande-Bretagne, aux Pays-Bas, en Allemagne, en Hongrie et aux États-Unis.
 </t>
         </is>
       </c>
